--- a/Physiopathologie/Excel/test traitement image/test.xlsx
+++ b/Physiopathologie/Excel/test traitement image/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="343">
   <si>
     <t>Question</t>
   </si>
@@ -28,937 +28,1021 @@
     <t>Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">27. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. Ventilation  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. Concernant l'activité électrique du cœur: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. Concernant la ventilation: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Concernant la mécanique ventilatoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. Concernant la diffusion: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32. Concernant le transport des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. Concernant la mécanique respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31. Concernant la mécanique ventilatoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. Concernant la diffusion: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. Concernant la ventilation pulmonaire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Concernant le transport des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q8. Concernant la ventilation pulmonaire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6. Concernant la mécanique respiratoire:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q16. Concernant la diffusion des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q12. Concernant la mécanique respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q34. Concernant la mécanique respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q32. Concernant le transport des gaz:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q23. Concernant la diffusion des gaz:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q19. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1. Concernant la diffusion des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q33. Concernant la ventilation pulmonaire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q29. Concernant la mécanique respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q28. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q27. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q20. Concernant le transport des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2. Concernant la ventilation pulmonaire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q32. Concernant la ventilation pulmonaire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q25. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q11. Concernant le transport des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q33. Concernant la mécanique respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q11. Concernant la diffusion des gaz: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10. Concernant le système respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9. Concernant la mécanique respiratoire: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10. Concernant la circulation pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3. Concernant l'exercice, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q35. Concernant la diffusion pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q24. Concernant l'air alvéolaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q14. Concernant les volumes pulmonaires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q13. Concernant la cascade de l'oxygène, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q12. Concernant l’airway closure (fermeture des voies aériennes), caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4. Concernant les volumes pulmonaires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3. Concernant l’airway closure (fermeture des voies aériennes), caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q39. Concernant la ventilation et les volumes, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q38. Concernant l'analyse de résultats d'examens des gaz du sang, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q37. Concernant les muscles respiratoires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q37. Concernant la ventilation et les volumes, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q32. Concernant la cascade de l'oxygène, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q19. Concernant l'analyse de résultats d'examens des gaz du sang, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q14. Concernant l'air alvéolaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10. Concernant la diffusion pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q38. La respiration calme est liée principalement à l'action d'un groupe de muscles inspiratoires. Parmi les trois  propositions suivantes, caractériser par Vrai ou Faux chacune des propositions.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque PaO2 devient &lt; 70 mm Hg et surtout à partir de 40 mm Hg, une faible diminution de PaO2 engendre une désaturation rapide et importante de l'hémoglobine,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La PO2 du sang veineux mêlé = 40 mm Hg et la PO2 du sang artériel = 100 mm Hg.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La ventilation alvéolaire est le volume d'air frais qui, chaque minute, atteint les alvéoles; 11 s’agit donc du  volume disponible pour les échanges gazeux. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La production tissulaire de CO2 est de 15-20 mmoles par jour. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la fréquence respiratoire = 10 cycles/min et le volume courant = 500 ml, la ventilation pulmonaire totale est de 5 L/min.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La quantité d'O2 liée à l'hémoglobine (Hb) dépend de la quantité d'Hb et de la PaO.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les chémorécepteurs centraux sont surtout sensibles aux variations de PaCO2, mais également de pH et de PaO2 (lorsque PaO2 devient &lt; 60 mm Hg).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La composition de l'air expiré varie progressivement pour atteindre, en fin d'expiration, la composition de l'air alvéolaire.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La consommation tissulaire en O2, au repos et chez l'un individu normal, est de 200 à 250 ml/min. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les poumons et la paroi thoracique sont assimilés à 2 ressorts, reliés par la plèvre et l’espace pleural, et qui agissent dans le même sens.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le volume expiratoire maximal à la première seconde (VEMS) permet de calculer le rapport de Tiffeneau qui est supérieur à 80% chez le sujet normal.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le coefficient de diffusion (D_L } représente la capacité de diffusion d'un gaz et est proportionnel à la surface de la barrière de diffusion.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La spirométrie ne permet pas la mesure du volume résiduel, de la capacité résiduelle fonctionnelle et de la capacité pulmonaire totale. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L’expiration est toujours passive.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le surfactant qui réduit la tension de surface diminue la compliance pulmonaire.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans un mélange gazeux ne contenant pas de vapeur d’eau et qui exerce une pression de 800 mm Hg, le composé dont la concentration fractionnelle est de 30% exerce une pression partielle de 240 mm Hg. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La circulation pulmonaire est une circulation à bas débit, basse pression et basse résistance.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A pression partielle égale, il y a 20 fois plus de CO2 dissout dans le plasma que d'O2.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les voies aériennes de conduction sont entièrement cartilagineuses. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les pneumocytes de type I produisent le surfactant. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si la solubilité plasmatique de l’O2, est de 0,0013 mM/mmHg, à 37°C, la concentration d’'O2 dissout dans le  plasma est de 0,013 mM, lorsque PO2 = 100 mm Hg. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La diffusion alvéolaire du CO est limitée par la perfusion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la barrière diffusion est altérée, la diffusion du CO2 peut être réduite et entraîner une hypercapnie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez le sujet normal, un exercice physique important réalisé en altitude aggrave l'hypoxémie.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La circulation pulmonaire est une circulation à haut débit et à basse résistance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez le sujet normal, il existe un shunt anatomique peu important qui est lié à la circulation bronchique. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La circulation bronchique assure également la vascularisation des alvéoles.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 10 cycles/min et le volume courant est de 500 ml, la ventilation alvéolaire est de 5L/min.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'air alvéolaire a une PCO2 de 40 mmHg et une PO2 de 104 mmHg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la ventilation alvéolaire double, la PAco2 diminue de moitié, considérant que la production de CO2 reste inchangée.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le rapport de Tiffeneau est le rapport entre le volume expiratoire maximal à la première seconde (VEMS) la capacité vitale forcée (CVF). Il est de 50% chez le sujet normal.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La compliance pulmonaire est plus grande lorsqu'elle est mesurée du VR vers la CPT (càd en inspiration), en raison du phénomène d'hystérésis lié au surfactant.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La cage thoracique peut être considérée comme un ressort étiré qui tend à revenir à sa position d'équilibre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la capacité pulmonaire totale = 6L et la capacité vitale = 4,5L, le volume résiduel = 1,5L </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une respiration calme, l'inspiration est active et l'expiratoire est passive. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au niveau de la CRE, il y a un équilibre entre le rappel élastique du poumon et le recul élastique de la cage  thoracique. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le surfactant est un composant de la barrière alvéolo-capillaire. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe entre la 1° à la 16° génération et est entièrement cartilagineuse.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le système parasympathique induit une bronchoconstriction par effet M3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le collapsus des alvéoles est empêché par la pression intrapleurale positive. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'hémoglobine transporte +98,5% de l'O2 vers les tissus, le restant de l'O2 étant transporté dans le sang, sous forme dissoute.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans un mélange gazeux, la pression exercée par chacun des gaz qui composent le mélange dépend de la  pression exercée par les autres gaz.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque de l'air est introduit dans l’espace pleural gauche, le poumon gauche et la cage thoracique gauche se rétractent.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le débit expiratoire de pointe (ou peak flow) est diminué en cas de pathologie obstructive et également en cas de pathologie restrictive.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Près de 80% de la résistance des voies aériennes inférieures est situé au niveau des voies aériennes larges et moyennes de plus de 2 mm de diamètre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La spirométrie ne permet pas de mesurer le volume résiduel, la capacité résiduelle fonctionnelle et la capacité pulmonaire totale.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En cas d'emphysème, la compliance pulmonaire augmente en raison d’une destruction des septa alvéolaires qui contiennent des fibres élastiques.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une pathologie restrictive, le rapport entre le volume maximal expiré à la lère seconde et la capacité vitale forcée reste normal ou est même légèrement augmenté. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'air ambiant contient 79% de N2, 21% d'O2 et 0,03% de CO2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selon la loi de Henry, la concentration d'un gaz dissout dans un liquide est inversement proportionnelle, à température constante, à sa solubilité et à sa pression partielle.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le coefficient de diffusion d'un gaz s'exprime en ml.min''.mmHg'' et est inversement proportionnel à  l'épaisseur de la barrière de diffusion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selon Laplace, les petites alvéoles pulmonaires où la pression est plus élevée se vident dans les plus grandes alvéoles où la pression est plus basse.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La circulation pulmonaire assure une vascularisation alvéolaire très importante (+ 500 à 1000 capillaires par alvéole).  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le système orthosympathique exerce un effet bronchoconstricteur par effet Beta-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La libération tissulaire de l'O2 lié à HbO2 est favorisée par la diminution du pH et l'augmentation de la PaCO2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La quantité d'O2 dissoute dans le plasma augmente fortement lorsque la PaO2 dépasse 100 mmHg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane est la libération de CO2 lié à l’hémoglobine (Hb) lors de la liaison de l'O2 avec l'Hb au  niveau des capillaires pulmonaires. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans les dérivations précordiales, l'augmentation progressive de l'onde R de V1 à V6 reflète l'augmentation progressive de l'épaisseur du myocarde sous l'électrode.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le nœud auriculo-ventriculaire est principalement innervé par le nerf vague droit.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la fréquence cardiaque devient trop élevée, le débit cardiaque devient limité par la réduction de la diastole.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 10 cycles/min et le volume courant de 500 ml, la ventilation alvéolaire est de 3,5L/min, sachant que le volume de l'espace mort anatomique est de 150 ml   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La PACO2 est proportionnelle à la production de CO2 et inversement proportionnelle à la ventilation  alvéolaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La PAO2 est de 100 mmHg lorsque PIO2 = 150 mmHg, PACO2 = 36 mmHg et R = 0,8    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une pneumectomie droite avec un poumon gauche normal, la compliance pulmonaire diminue mais la compliance pulmonaire spécifique reste inchangée.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le surfactant est un agent tensio-actif qui diminue la tension de surface et qui augmente la compliance pulmonaire,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le débit expiratoire n'est effort dépendant qu'à haut volume pulmonaire. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane signifie que le contenu du sang en CO2 est indépendant de la saturation de l'hémoglobine en O2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La quantité d'O2 liée à l'hémoglobine (Hb) qui s'exprime en ml O2/100 ml de sang est déterminée par la relation suivante: O2 lié = (% sat. Hb) x (capacité maximale de l'Hb pour l'O2)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez un adulte en bonne santé et au niveau de la mer, la PAO2 = 104 mmHg et la PvO2 = 40 mmHg. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez un sujet normal et au repos, l'équilibre de la pression partielle en O2 entre le capillaire alvéolaire et l'air alvéolaire est atteint après +0,25 sec  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au niveau pulmonaire, la diffusion du N20 est limitée par la perfusion.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la barrière de diffusion est altérée, 1l est rare de voir se développer une hypoxémie lorsqu'un effort  modéré est réalisé en altitude, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pour un même volume de l'espace mort anatomique et pour une même ventilation pulmonaire totale, la ventilation alvéolaire peut cependant être différente si le volume courant augmente ou diminue. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'équation des gaz alvéolaires est la suivante: PAG: = PAos - (Plcos/R)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'espace mort alvéolaire correspond au volume d'air qui parvient aux alvéoles non perfusées. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la valeur de la CRF est connue, la CPT peut être calculée.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le volume résiduel est le volume qui demeure dans les poumons après une expiration normale,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une pathologie obstructive comme l'emphysème, le VR est augmenté alors que le rapport de Tiffeneau est diminué.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La capacité de diffusion pour le CO est diminuée lorsque la barrière alvéolo-capillaire est épaissie ou détruite.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au niveau de la mer et dans les conditions normales, la PAO2 est de 150 mmHg    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une hypoxémie peut résulter d'une altération de la barrière alvéolo-capillaire ou d'une diminution de la PIO2 liée à l'altitude.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane signifie que le contenu du sang en CO2 à une valeur donnée de PCO2. augmente lorsque la saturation en O2 de l'hémoglobine est plus basse,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la saturation de l’hémoglobine devient inférieure à 90%, la PaO2 est déjà fortement diminuée.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une anémie et lorsque la PaO2 reste identique, la saturation de l'hémoglobine diminue.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'expiration est toujours passive.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La spirométrie permet de mesurer 3 volumes et 2 capacités.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'un pneumothorax gauche, le poumon droit se rétracte et la cage thoracique gauche se distend,.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La capacité résiduelle fonctionnelle est le volume qui demeure dans les poumons après une expiration calme et qui correspond à la somme du volume de réserve expiratoire et du volume résiduel.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une pathologie obstructive comme l'emphysème, la capacité pulmonaire totale est augmentée...    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d’une pathologie restrictive, le rapport de Tiffeneau qui est le rapport entre le VEMS et la capacité vitale forcée est diminué.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La zone d'échange des voies aériennes inférieures se situe de la 17e à la 23e génération dans la mesure où il existe des alvéoles à partir des bronchioles respiratoires.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La communication entre veines bronchiques (sang oxygéné) et veines pulmonaires (sang désoxygéné)  explique le shunt anatomique du sujet normal.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En absence de surfactant, les petites alvéoles gonfleraient et les grandes alvéoles se collaberaient.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selon Laplace, les grandes alvéoles où la pression est plus élevée se vident dans les plus petites alvéoles où la pression est plus basse,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la diffusion tissulaire de l'O2 est +20 fois supérieure à celle du CO2, compte tenu de sa plus grande solubilité.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> comme la pression partielle de la vapeur d'eau = 47 mmHg à 37°C, l'air humide exerce, à cette température, une pression de 713 mmHg au niveau de la mer.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selon Laplace, les grandes alvéoles où la pression est plus élevée se vident dans les plus petites alvéoles où la pression est plus basse.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La compliance pulmonaire est plus faible à hauts volumes pulmonaires et est la plus haute au niveau du  volume résiduel.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une pathologie restrictive, la CRF est diminuée en raison de l'augmentation du rappel élastique du poumon.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe de la 1°° à la 16° génération, Cette zone est cartilagineuse jusqu'à la 10° génération et non cartilagineuse ensuite.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La vascularisation alvéolaire est très importante et il existe de 50 à 100 capillaires par alvéole.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Il n'y a pas d'innervation directe orthosympathique au niveau des muscles lisses bronchiques.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans les conditions normales, le transfert de l'O2 à travers la barrière alvéolo-capillaire est limité par la diffusion.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En altitude, la pression partielle en O2 du sang veineux mêlé est diminuée chez le sujet normal.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La capacité de diffusion pour le CO est diminuée lors d'une fibrose pulmonaire qui réduit la surface des échanges alvéolo-capillaires.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La ventilation alvéolaire (V_A ) représente le volume d'air frais qui atteint les alvéoles à chaque cycle respiratoire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque V_A  = 5 L/min et P,CO2 = 30 mm Hg, la P,CO2 sera de 60 mmHg si V À diminue de moitié,  considérant que la production de CO2 reste inchangée.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'espace mort anatomique est la somme de l'espace mort physiologique et de l'espace mort alvéolaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane permet de doubler la quantité de CO2 libérée au niveau des alvéoles pulmonaires.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une anémie réduit la capacité de transport de l'O2 par litre de sang même lorsque la PaO2 reste inchangée.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le déplacement vers la gauche de la courbe de dissociation de HbO2 favorise la libération tissulaire d'O2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans une situation donnée, la production tissulaire de CO2 est relativement constante et la PaCO2 est un bon indicateur de la ventilation alvéolaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 12 cycles/min et le volume courant de 450 ml, la ventilation alvéolaire  est de 3,4L/min, sachant que le volume de l'espace mort anatomique est de 150 ml   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque PIO2 = 150 mmHg et R = 0,8, la PaO2 est de 100 mmHg si la PaCO2 est de 40 mm Hg.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'un emphysème, la CRF est augmentée en raison d'une diminution du rappel élastique du poumon.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le rapport de Tiffeneau est normal ou légèrement augmenté en cas de pathologie restrictive.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le débit expiratoire devient effort dépendant à bas volume pulmonaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lorsque la PaO2; se situe entre 70 et 100 mm Hg, la saturation de l’hémoglobine reste supérieure à 92% et la quantité d’O2 liée à l’hémoglobine reste importante.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la production tissulaire d’un organisme adulte est de + 10 mmoles de CO2 par minute et au repos, ce qui correspond à 15-20 moles de CO2 produites par jour.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> le déplacement vers la droite de la courbe de dissociation de HbO2 favorise la libération tissulaire d'O2.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la capacité maximale de l’hémoglobine pour l'O2 augmente en cas d’anémie.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la capacité de diffusion (D_L) est mesurée en clinique grâce à l’utilisation de CO dont la diffusion n'est limitée que par la barrière de diffusion.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dans les conditions normales, la diffusion alvéolaire de l'O2 est limitée par la perfusion tandis que la  diffusion alvéolaire de CO2 est limitée par la barrière de diffusion.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la ventilation pulmonaire totale est proportionnelle à la fréquence respiratoire et au volume courant. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lors d'une respiration rapide et superficielle, la ventilation alvéolaire diminue, ce qui entraîne obligatoirement une diminution de la ventilation pulmonaire totale,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> les chémorécepteurs centraux ne sont pas influencés par la diminution de PaO2.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la contraction des m. intercostaux externes augmente uniquement le diamètre antéro-postérieur de la cage thoracique. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la cage thoracique a tendance à se distendre et à augmenter son volume.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lors d'un pneumothorax gauche, le poumon gauche se rétracte et la cage thoracique se distend à droite.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> le surfactant est un agent tensio-actif qui augmente la tension de surface. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la spiromètre mesure uniquement les volumes échangeables. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la zone de conduction des voies aériennes inférieures s'étend de la 1° à la 16° génération.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La capacité de diffusion pour le CO reste préservée lors de l'emphysème,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans les conditions normales, le transfert de l'O2 à travers la barrière alvéolo-capillaire est limité par la perfusion et la diffusion.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En altitude, le gradient artério-veineux en O2 peut être fortement réduit, suite à l'hypoxémie et à la diminution de la pression partielle en O2 du sang veineux mêlé.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La force de retour élastique du poumon dépend uniquement de la tension de surface liée à l'interface air-eau au niveau des alvéoles.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La compliance pulmonaire est déterminée lors d'une courbe d'inflation, en mesurant la variation de pression au  volume correspondant à la capacité résiduelle fonctionnelle + 1L.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La résistance des voies aériennes inférieures est indépendante du volume pulmonaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le surfactant réduit la tension de surface, ce qui diminue la compliance pulmonaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'expiration est active lors d'une respiration calme.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Connaissant la valeur de la capacité pulmonaire totale et du volume résiduel, il est possible de calculer la capacité vitale.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la saturation de l’hémoglobine est de 90%, la PaO2 reste encore proche de 100 mmHg.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane signifie que le contenu du sang en CO2 dépend de la quantité d'hémoglobine.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La libération tissulaire de l’O2 lié à HbO2 est favorisée par l'augmentation du pH (effet Bohr).    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le transfert du CO à travers la barrière alvéolo-capillaire est limité par la diffusion compte tenu de la très haute affinité du CO pour l'hémoglobine.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'exercice musculaire important en altitude peut entraîner une hypoxémie chez le sujet normal.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le transfert du N20 à travers la barrière alvéolo-capillaire est limité par les caractéristiques de la barrière alvéolo-capillaire dans la mesure où le N20 ne se lie pas à l’hémoglobine.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le shunt anatomique est un mélange de sang veineux désoxygéné bronchique avec le sang oxygéné alvéolaire qui génère une petite différence alvéolo-artérielle en O2 chez l'individu normal (&lt; 15 mm Hg).   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures devient non cartilagineuse à partir des bronchioles, c'est-  à-dire à partir de la 16ème génération.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque l'altitude augmente, la PaO2 diminue en raison de la diminution de la pression atmosphérique et de la FiO2.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La diffusion des gaz au niveau de la barrière alvéolo-capillaire dépend du coefficient de diffusion du gaz et de son gradient de pression partielle de part et d’autre de cette barrière.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le transfert du N20 à travers la barrière alvéolo-capillaire est limité par la perfusion compte tenu de l'absence  de liaison du N;0 avec l'hémoglobine.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le CO est utilisé en clinique pour mesurer la capacité de diffusion du poumon.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'équation des gaz alvéolaires permet de déterminer la PAO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 20 cycles/min et le volume courant de 400 ml, la ventilation alvéolaire  est de SL/min   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'espace mort alvéolaire est également appelé espace mort physiologique.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque de l'air est introduit dans l’espace pleural, le poumon homolatéral se rétracte et la cage thoracique homolatérale se distend.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Un patient dont la CVF = 4,6 L et le VEMS = 1,4 L a très probablement une pathologie restrictive,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la capacité résiduelle fonctionnelle = 3L, la capacité inspiratoire = 3,5L et le volume courant = 0,5L, le volume de réserve inspiratoire est égal à 3L    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La diffusion tissulaire de l'O2 est +20 fois supérieure à celle du CO2 compte tenu de la plus petite taille de l'O2 et de la plus grande solubilité de l'O2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La compliance spécifique dépend du volume pulmonaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le surfactant qui réduit la tension de surface diminue la compliance pulmonaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La circulation bronchique qui fait communiquer les veines bronchiques et les veines pulmonaires est responsable d'un shunt anatomique.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'un exercice physique, l'augmentation du débit cardiaque entraîne une augmentation du débit pulmonaire  et par conséquent une élévation importante de la pression pulmonaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A 7000 m d'altitude et en considérant que la Patm est de 0,4 atm, la Pls est de 54 mmHg    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Bohr signifie que, pour une PO2 et une PCO2 données, la saturation de l'hémoglobine en O2 diminue lorsque le pH diminue,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez un sujet normal, la saturation de l'hémoglobine est de 90% au niveau du sang veineux mêlé.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le "chloride shift" ou phénomène de Hamburger explique que l'hématocrite veineux est un peu inférieur à l'hématocrite artériel.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D'après l'équation de la ventilation alvéolaire, lorsque la PaCO2 double, cela signifie que la ventilation  alvéolaire a également doublé, considérant que la production de CO2 reste inchangée.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'espace mort physiologique est d'environ 150 ml et correspond à la zone de conduction des voies aériennes où  il n'y a pas d'échanges gazeux.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La ventilation alvéolaire se calcule par la formule: V4 = FR. Ve où FR est la fréquence respiratoire et Ve est le volume courant.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pour un espace mort anatomique de 150 ml et une fréquence respiratoire de 20 cycles/minute, la ventilation alvéolaire est de 6L/min lorsque le volume courant est de 450 mil.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En altitude, la diminution de la PAO2 s'explique par la diminution de la PIO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une embolie pulmonaire, l'espace mort physiologique augmente.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures s'étend de la 1% à la 16° génération et est cartilagineuse jusqu'à la 10° génération.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La vascularisation alvéolaire est assurée par la circulation pulmonaire et par la circulation bronchique.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans un mélange gazeux ne contenant pas de vapeur d'eau et qui exerce une pression de 600 mmHg, le composé dont la concentration fractionnelle est de 20% exerce une pression partielle de 120 mmHg.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d’une respiration calme, l'expiration est passive.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque le volume de réserve expiratoire = 1,5L et le volume de réserve inspiratoire = 2,5L, la capacité vitale est de 4L     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez un individu normal, à la CRE, le rappel du poumon l'emporte sur le recul de la cage thoracique.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La différence entre la pression partielle en CO2 du sang artériel et la pression partielle en CO2 du sang veineux mêlé est de l'ordre de 5 à 6 mmHg   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane signifie que la concentration du sang en CO2 à une PCO2 donnée est d'autant plus élevée que la saturation de l'hémoglobine en O2 est faible.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La quantité d'O2 liée à l'hémoglobine dépend uniquement de la quantité d'hémoglobine.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une inspiration calme, la pression intra pleurale doit suffisamment diminuer pour vaincre le retour élastique du poumon et la résistance des voies aériennes.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le rapport de Tiffeneau est normal lorsqu'il est égal à 80%    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 à 40% de la résistance des voies aériennes se situent au niveau des voies aériennes supérieures et 60 à 75% se situent au niveau des voies aériennes inférieures.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une anémie, la capacité maximale de l'hémoglobine pour l'O2 diminue.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si on augmente suffisamment la FIO2 de l'air inspiré, il est possible de dissoudre une quantité importante d'O2 dans le sang et d'améliorer ainsi le transport d'O2 vers les tissus.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'effet Haldane signifie que l'hémoglobine réduite dans les capillaires périphériques tissulaires facilite le transport du CO2.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La capacité de diffusion pour le CO est rarement diminuée lors de l'emphysème.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au niveau de la mer, la PIO2 est de 150 mmHg et dans les conditions normales, la PAO2 est de 104 mmHg.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'altitude peut entraîner une hypoxémie sévère alors que la barrière de diffusion reste pourtant préservée.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le lobule secondaire est l'unité respiratoire anatomique, limité par des travées conjonctives et comprenant 2-5 bronchioles terminales.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La vascularisation alvéolaire est très importante avec + 500 à 1000 capillaires par alvéole.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le surfactant est un agent tensio-actif qui augmente la tension de surface.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A la fin d'une expiration calme, l'inspiration débute au niveau de la CRF.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le volume résiduel est le volume qui demeure dans les poumons après une expiration normale.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A la valeur de la CPT, la force de rappel élastique du poumon est la plus élevée.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grâce au phénomène de recrutement et de distension, les résistances vasculaires pulmonaires diminuent à l'effort.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'investigation des mécanismes d’une hypertension pulmonaire nécessite une évaluation du débit cardiaque,  des résistances vasculaires pulmonaires et des pressions d'oreillette gauche.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La vasoconstriction pulmonaire hypoxique peut être bénéfique en diminuant le shunt.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au terme d'un effort important chez un sujet normal d'âge moyen, les résultats de mesure suivants sont classiques: fréquence cardiaque : 175/min; VE : 180 L/min et VO2 : 3000 ml/min    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le seuil ventilatoire est le moment où la VCO2 augmente moins que la VO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au cours d’un effort progressif chez un sujet, la charge passe de 20 à 40 puis 80 watts et la VO2 de 250 à 500 puis 1000 ml/min. Ce résultat est cohérent.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En physiopathologie, le trouble de la diffusion est le principal facteur responsable d'une AaPO2 élevée.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La diffusion pulmonaire augmente à l'exercice car le facteur résistance à la diffusion dans le globule rouge et à la combinaison chimique dans le globule rouge diminue.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La diffusion du CO est principalement liée à la diffusion comme celle de tout gaz inerte.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La concentration fractionnaire de l'oxygène qui s'y trouve baisse quand l'altitude augmente.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pendant la respiration, la pression partielle en CO2 y est supérieure à tout moment à celle mesurée à la bouche du sujet.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La pression partielle en O2 est inférieure à celle de l'air inspiré car l'O2 y est capté et le CO2 rejeté, De plus, l'air y est saturé en vapeur d'eau.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La CPT résulte de l'équilibre entre le rappel élastique du poumon et la force des muscles inspiratoires.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une CPT de 6300 ml, une CRF de 3400 ml, un VRE de 1400 ml, un volume courant de 500 ml, un VRI de 3000 ml, une CI de 3000 ml et un VR de 2000 mi sont des valeurs compatibles entre-elles.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les volumes mobilisables sont mesurés par pléthysmographie corporelle.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'hypoxémie liée à une hypoventilation alvéolaire, un trouble de la diffusion, un shunt ou une altération des rapports ventilation/perfusion est toujours associée à une élévation de la PaCO2 qui sera corrigée par l'activation des chémorécepteurs sauf dans le cas de l'hypoventilation alvéolaire.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une hypoventilation alvéolaire va altérer la AaPO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans cette cascade, PA précède Pa qui précède Pc.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle est plus importante à la base du poumon en position debout.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle augmente avec l'âge chez le sujet normal.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle augmente la AaPO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La CRF diminue en position couchée.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CI = CPT — VRE — VR    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les volumes non mobilisables peuvent être mesurés par spirométrie.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle est un des facteurs responsables de la baisse de la PaO2 avec l'âge.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle est affectée par la gravité.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle n'existe jamais à la CRF.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Un VEMS de 3000 ml et une CVF de 3000 ml sont physiologiquement impossibles.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si un volume courant de 600 ml (espace mort de 150 mil} est doublé avec une fréquence respiratoire constante, là PaCO2 passera de 40 à 17 mmHg.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPT et VEMS/CVF 4: c'est la conjonction d'un trouble obstructif et d’un trouble restrictif.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le contenu en O2 est une fonction pratiquement linéaire de la saturation en O2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La PaO2 et le contenu en O2 sont diminués lors d'une intoxication au monoxyde de carbone.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En administrant de l'O2 à concentration fractionnaire maximale chez un sujet normal, on ne doit pas être étonné si la PaO2 dépasse 500 mmHg.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une transsection cervicale D1 est associée à une paralysie de tous les muscles inspiratoires primaires.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le diaphragme a une action inspiratoire sur le gril costal inférieur.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'augmentation de pression pleurale est responsable de l'ascension inspiratoire du diaphragme paralysé.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Un VEMS s'exprime en unité de volume par seconde.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si on maintient une ventilation minute constante en augmentant la fréquence respiratoire, la PaCO2 augmentera.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VEMS/CVF avec VEMS + et CVF &amp; signe un trouble ventilatoire obstructif ; il faudra évaluer la CPT pour confirmer/infirmer l'existence d'un trouble restrictif surajouté.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'hypoxémie liée à une hypoventilation alvéolaire, un trouble de la diffusion, un shunt ou une altération des rapports ventilation/perfusion est toujours associée à une élévation de la PaCO2 qui sera corrigée par l'activation des chémorécepteurs sauf dans le cas de l'hypoventilation alvéolaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La AaPO2 n'est pas influencée par la ventilation alvéolaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'altitude diminue la FIO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le contenu en O2 est une fonction virtuellement linéaire de la saturation en Oz.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si la PaCO2 double, c'est que la ventilation alvéolaire a été divisée par deux.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le shunt est la seule situation où administrer de l'O2 ne permettra pas de corriger l'hypoxémie au niveau espéré.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Il est idéalement analysé sur tout l'air expiré collecté dans un grand sac.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pendant la respiration calme, il est saturé en vapeur d'eau   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La pression partielle en O2 chute par rapport à celle de l'air inspiré.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En physiopathologie, elle est probablement le facteur le moins important d'une AaPO2 élevée.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elle a une composante membranaire et vasculaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La loi de Boyle permet sa mesure.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les muscles parasternaux en font partie.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le diaphragme agit sur le gril costal et l'abdomen.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La paralysie de l'un d'eux amènera souvent à une respiration paradoxale.    </t>
+    <t xml:space="preserve">22. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Concernant le réseau vasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28. Concernant l'activité électrique du cœur:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Concernant le compartiment veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Concernant les propriétés du système cardiovasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Concernant l'activité électrique du cœur: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Concernant l'hydratation du LEC: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Concernant le système circulatoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Concernant l'activité électrique du coeur:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25. Concernant le système circulatoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Concernant le système veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26. Concernant le système veineux:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant les propriétés du muscle cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20. Concernant l'hémodynamique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. Concernant l'hémodynamique:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant le système veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15. Concernant les propriétés du muscle cardiaque:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant la pression artérielle:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5. Concernant l'hémodynamique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant le système veineux:  </t>
+  </si>
+  <si>
+    <t>Q3. Concernant la pression artérielle (P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q33. Concernant les propriétés du muscle cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22. Concernant l'homéostasie acide-base: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant le système veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant le système cardiovasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34. Concernant l'hémodynamique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31. Concernant l'activité électrique cardiaque:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant le système cardiovasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26. Concernant la pompe cardiaque:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant les propriétés du muscle cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4,. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant la tension artérielle, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22. Concernant la fraction d'éjection ventriculaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant l'électrocardiogramme, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant l'électrocardiogramme, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. En considérant les adaptations cardiovasculaires à l'exercice, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q36. En considérant la régulation parasympathique et sympathique du cœur, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31. En considérant le travail cardiaque et la perfusion coronaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30. En considérant le muscle cardiaque, la précharge, la postcharge et la contractilité, caractériser par  ou  chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soit une sphère dont l'épaisseur de la paroi est négligeable. Lorsque le rayon de la sphère = 4 cm et la pression transmurale = 8 dyne.cm”, la tension qui s'exerce au niveau de la paroi est de 16 dyne.cm"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique exerce un effet fi, au niveau des cardiomyocytes auriculaires et ventriculaires ainsi qu'au niveau du nœud sinusal et du nœud auriculo-ventriculaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau résistif du système circulatoire est formé par l'aorte et les gros vaisseaux artériels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d’une structure creuse est inversement proportionnelle à la pression qui y règne et à son rayon.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les propriétés de la fibre musculaire cardiaque isolée peuvent être transposées au ventricule, ainsi, la tension exercée par la fibre (g) correspond à la pression intraventriculaire (mm Hg).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité en déplaçant la relation force-vitesse vers le haut et la droite, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les veines ont une compliance élevée et sont des vaisseaux capacitifs.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux est le débit de sang provenant du compartiment veineux périphérique et qui entre dans le compartiment veineux central.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La postcharge est la contrainte à (définie selon Laplace) qui s'exerce sur la paroi du ventricule au moment  où 1] se contracte et qui s'oppose à l’éjection du sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée est inversement proportionnelle à la compliance de l'aorte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression artérielle sytolique = 120 mm Hg et la pression artérielle diastolique = 90 mm Hg, la pression moyenne calculée est de 100 mm Hg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diminution de la pression pulsée du sujet âgé s'explique par la diminution de la compliance aortique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour une fréquence cardiaque de 75 battements/min, le cycle cardiaque a une durée de 800 msec. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contractilité n’influence pas le volume d’éjection systolique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit cardiaque est inversement proportionnel à la fréquence cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le nœud sinusal est principalement innervé par le nerf vague gauche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'enregistrement de l'ECG comporte 12 dérivations: 3 bipolaires et 9 unipolaires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation auriculaire n'est pas visible sur l'ECG en raison de sa faible amplitude qui est masquée  par le complexe QRS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse du courant sanguin augmente lorsque la surface de section des vaisseaux augmente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque l'écoulement est laminaire, la loi de Poiseuille indique que, le débit est proportionnel à la longueur du tube et inversement proportionnel à la 4° puissance du rayon du tube.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La paroi des artères contient une quantité importante de fibres élastiques qui leur confèrent une forte  compliance et une faible élastance.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. La vitesse du courant sanguin est la plus faible au niveau du réseau capillaire où la surface de section est la plus faible.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un exercice physique, la pression pulsée augmente mais la pression artérielle moyenne reste relativement stable.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance élevée des veines périphérique (+50 fois supérieure à la compliance des artères) explique que le réseau veineux périphérique est un réseau capacitif qui contient +65-70% du sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les déterminants du débit cardiaque sont la fréquence cardiaque et le VES (le VES étant fonction de la précharge, de la contractilité et de la postcharge).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fréquence de décharge des barorécepteurs du système vasculaire à haute pression diminue lorsque la pression artérielle moyenne diminue.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque augmente, la durée de la systole est plus fortement réduite que la durée de la diastole,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance veineuse diminue.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pompe respiratoire augmente le retour le veineux lors de l'expiration.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau capacitif du système circulatoire est formé par les veinules et veines contenant +65% du volume  sanguin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PA, = 130 mmHg et PAu = 70 mmHg, la PA moyenne est égale à 90 mmHg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde de pression progresse +10 à 20 fois plus vite que le sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée est la différence entre la pression systolique et la pression diastolique. Elle est  &gt; 60 mmHg chez l'adulte jeune. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation des oreillettes n’est pas visible sur l'ECG, étant masquée par le complexe QRS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comme au niveau des oreillettes, la repolarisation ventriculaire progresse de l’épicarde vers l'endocarde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'axe normal du cœur se situe entre -30° et +90°  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité en déplaçant la relation force-vitesse vers le haut et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télédiastolique (VTD) est le volume du ventricule en fin de remplissage, estimé par la formule: VTD = VES + VTS, Sa valeur normale au repos est de + 130 ml par minute  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La FEV permet d'estimer la contractilité du myocarde par la formule: FEV = (VES/VTD) x 100. Dans les  conditions normales, sa valeur est de +70% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 2ème bruit du cœur est lié à la fermeture des valves auriculo-ventriculaire G et D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au repos, lorsque la fréquence cardiaque est de 75 battements par minute, la diastole occupe 2/3 du cycle cardiaque et dure environ 500 msec tandis que la systole occupe 1/3 du cycle et dure environ 300 msec  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling est une propriété intrinsèque du myocarde qui ajuste le VES au retour veineux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les différentes circulations destinées aux organes sont disposées en parallèle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire est une circulation à basse pression et à haute résistance.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau capacitif qui contient +95% du volume sanguin est formé par les veines et les veinules.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les dérivations précordiales, l'amplitude de l'onde R en regard de chaque électrode est corrélée à l'épaisseur du myocarde viable sous l’électrode.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ECG permet de suivre l'activité électrique cardiaque au cours du temps, de manière directe et globale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le ler bruit du cœur est hié à l'ouverture des valves auriculo-ventriculaires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La taille d'un infarctus du myocarde dépend uniquement de la localisation de l’occlusion artérielle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique innerve le nœud sinusal (surtout via le nerf vague D) et le nœud auriculo- ventriculaire (surtout via le nerf vague G).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'élastance est l'inverse de la compliance et représente la variation de pression induite par une variation de  volume. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée (P,) est déterminée par la relation: P, = C,/ VES  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez l'adulte jeune en bonne santé, la pression artérielle systolique se situe entre 90 et 120 mmHg et la pression artérielle diastolique se situe entre 60 et 80 mmHg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le baroréflexe artériel est une boucle de rétrocontrôle négatif qui assure la régulation immédiate de la  pression artérielle moyenne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ECG normal montre une onde T positive qui s'explique par la repolarisation ventriculaire qui progresse de l'épicarde vers l'endocarde.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez l'individu normal au repos, le tonus orthosympathique est prépondérant et détermine la fréquence cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intervalle PR de l'ECG comprend la dépolarisation auriculaire et la conduction au niveau du nœud auriculo-ventriculaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la systole, le ventricule ne se vide pas totalement et dans les conditions normales, le volume télésystolique est de l'ordre de 100 ml.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit cardiaque est le produit du volume d'éjection systolique et de la fréquence cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est assimilée au volume télédiastolique du ventricule qui représente le remplissage  ventriculaire et qui dépend essentiellement du retour veineux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité du myocarde en déplaçant la courbe de tension isométrique maximale vers le haut et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active développée par le muscle papillaire cardiaque est indépendante de sa longueur de repos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation de la contractilité myocardique augmente le volume d'éjection systolique à tout niveau  donné de précharge et de postcharge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en a VF et égal à 0 en D_L l'axe du cœur est à +90°    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dépolarisation auriculaire et ventriculaire progresse de l’endocarde vers l’épicarde,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intervalle QT s'étend du début du complexe QRS à la fin de l'onde T et sa durée est indépendante du rythme cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase de remplissage et la phase de relaxation isovolumétrique constituent la diastole.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contractilité représente la force de contraction des fibres musculaires indépendamment de la précharge et  de la postcharge.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation hétérométrique est l'adaptation du volume d'éjection systolique en fonction de la longueur des  fibres musculaires càd en fonction du volume télédiastolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux augmente lorsque la pression veineuse centrale diminue.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le compartiment veineux central est situé entre le compartiment veineux périphérique et le ventricule  gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance du compartiment veineux central est élevée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La mesure de la pression moyenne (PA,,,) n'est pas réalisée en routine et peut être estimée par la relation: PAwoy — PA; Lu 1/3(PAsys: - PAuinst)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée diminue avec l'âge.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le baroréflexe artériel est une boucle de rétrocontrôle négatif qui assure la régulation immédiate de la pression artérielle systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse (v) du sang varie selon la relation: v = S/Q où Q est le débit sanguin et S est la surface de section du vaisseau.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance, en em°.mmHg” , est un index de distension de la paroi du vaisseau et représente la variation  de volume du vaisseau induite par une variation de pression transmurale qui s’y applique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation d'épaisseur de la paroi ventriculaire augmente la contrainte &amp; qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité pacemaker des cellules sinusales signifie que leur potentiel de repos fluctue spontanément ou de manière périodique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le potentiel d'action des cellules sinusales ne comporte pas de phase 0 et de phase plateau.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse de conduction est accélérée au niveau du nœud auriculo-ventriculaire où elle est de 0,05 m/sec.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la cause, les états d’hyperhydratation du LEC peuvent s'accompagner d'hypertension artérielle ou d'hypotension artérielle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une déshydratation du LEC, l'osmolalité plasmatique et la natrémie sont normales sauf si il existe un  trouble associé de la balance de l'eau.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour une fréquence cardiaque de 75 battements/mun, le cycle cardiaque a une durée de 800 msec   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling est une propriété intrinsèque du myocarde qui ajuste le volume d’éjection systolique  au retour veineux.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sur la courbe PV_A  la systole est la phase d'éjection ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d’une structure creuse est inversement proportionnelle à l'épaisseur de la paroi.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'un système vasculaire est formé de plusieurs éléments disposés en série, le débit est nécessairement  identique au niveau de chaque élément.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le nombre de Reynolds est &gt; 2000, l'écoulement est laminaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une diminution de la postcharge diminue le volume télésystolique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fraction d’éjection ventriculaire qui permet d'estimer la contractilité se situe normalement entre 55 et 75%    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité de la fibre musculaire cardiaque augmente, la relation force vitesse est déplacée vers le haut et la gauche,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dérivation DI est une dérivation bipolaire qui mesure la différence de potentiel entre le bras D et le bras G.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est négatif en aVF et positif en aVL, l'axe du cœur se situe entre 0 et +30°    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La durée normale de l'intervalle PR se situe entre 0,12 et 0,2 sec et est en moyenne de 0,16 sec    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 2e bruit du cœur est lié à l'ouverture des valves aortique et pulmonaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume d'éjection systolique dépend de la précharge, de la postcharge et de la contractilité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télésystolique est le volume de sang résiduel au niveau du ventricule après la systole: 1l est de l'ordre de 50 ml dans les conditions normales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lorsque l'écoulement est laminaire, le débit est multiplié par 8 lorsque le rayon est multiplié par 2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la vitesse du courant sanguin est la plus élevée au niveau du réseau artériel (+0,5m/s) où la surface de section est plus basse.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la compliance s'exprime en em°/mmHg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le prépotentiel peut être défini comme une dépolarisation progressive qui n'atteint jamais le seuil de dépolarisation.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique exerce son effet dromotrope négatif en hyperpolarisant les cellules de la région  N du nœud auriculo-ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules myocardiques ventriculaires qui sont les dernières à se dépolariser ont un potentiel d'action plus court, ce qui explique leur repolarisation précoce et l'onde T positive à l'ECG.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire et la circulation systémique sont disposées en parallèle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit sanguin est inversement proportionnel à la 4° puissance du rayon du tube selon la loi de Poiseuille-  Hagen.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les artères et les veines ont une innervation orthosympathique de type &amp;,-adrénergique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est la contrainte &amp; (définie selon Laplace) qui s'exerce sur la paroi du ventricule en fin de diastole.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité de la fibre musculaire cardiaque en déplaçant la courbe de tension  isométrique maximale vers le haut et la gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 6,4 litres par minute et la fréquence cardiaque est de 80 battements par minute, le VES est de 80 ml par minute.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée augmente lorsque le volume d'éjection systolique augmente.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les barorécepteurs du système vasculaire à haute pression ont une activité permanente ou tonique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression artérielle systolique = 120 mm Hg et la pression artérielle diastolique = 90 mm Hg, la pression artérielle moyenne calculée est de 105 mm Hg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux est le débit de sang provenant du compartiment veineux périphérique et qui entre dans le compartiment veineux central, selon la relation: Q = (PVP — PVCYR   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente lorsque la compliance veineuse augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance des veines périphérique et des veines centrales est +50 fois supérieure à la compliance des artères.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase 0 du potentiel d'action des cellules sinusales est hée à l'activation transitoire du canal Na, rapide.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La période réfractaire absolue au niveau du cardiomyocyte a une durée longue et équivalente à celle de la contraction musculaire, ce qui évite le tétanos cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique accélère le rythme cardiaque en augmentant la pente de la phase 4 du potentiel d'action des cellules sinusales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le compartiment veineux périphérique a un large volume, une compliance élevée et une résistance faible.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la courbe de fonction veineuse relie la pression veineuse centrale au retour veineux.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lors d’une transfusion, le croisement des courbes de fonction cardiaque et veineuse est déplacé vers le haut et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la régulation de la pression artérielle à court terme est assurée essentiellement par l'activité des barorécepteurs du système vasculaire à haute pression. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dans la situation normale, la pression veineuse centrale se situe entre 0 et 2 mmHg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chez l'adulte jeune, la pression artérielle pulsée est &gt; 60 mm Hg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la postcharge est d'autant plus importante que l’élastance du réseau artériel est basse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'index cardiaque exprime le débit cardiaque en fonction de la surface corporelle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la fréquence cardiaque maximale d’un sujet de 40 ans est de 200 battements/min.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la contractilité représente la force de contraction des fibres musculaires et dépend de la précharge et de la postcharge  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la précharge est assimilée au volume télédiastolique du ventricule et dépend essentiellement du retour VEINEUXx.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'effet inotrope de Sarnoff indique, qu'à un volume télédiastolique donné, le volume d’éjection systolique augmente lorsque la contractilité augmente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> au repos, la diastole occupe 2/3 du cycle cardiaque, soit +500 msec.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la noradrénaline augmente la contractilité en déplaçant la courbe de tension isométrique maximale vers le bas et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la durée d’un cycle cardiaque est l'inverse de la fréquence cardiaque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le système hormonal est le principal régulateur de l’activité pacemaker cardiaque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le complexe QRS de l'ECG représente la dépolarisation ventriculaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chez l'individu normal au repos, le tonus orthosympathique est prépondérant et son niveau d'activité  détermine la fréquence cardiaque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale diminue en position allongée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux augmente lors de l'expiration.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance  veincuse augmente.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active développée par le muscle papillaire cardiaque isolé dépend de sa longueur de repos.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité augmente, V_A ,,, augmente de même que la tension isométrique maximale à une longueur donnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une variation de la contractilité n'implique pas toujours un déplacement de la courbe de tension isométrique maximale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une insuffisance cardiaque diastolique peut résulter d'un défaut de relaxation ventriculaire ou de remplissage ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une insuffisance cardiaque diastolique, la fraction d'éjection ventriculaire est diminuée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une augmentation de la postcharge peut entraîner une insuffisance cardiaque systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance est égale au rapport (AP/AV) où AV est la variation de volume (em”}) et AP est la variation de pression (mmHg)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation du rayon du ventricule diminue la contrainte  o qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, le débit sanguin est proportionnel à la longueur du vaisseau.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en D2 et égal à 0 en aVL, l'axe du cœur est à -30°   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La transmission de l’activité électrique cardiaque est normalement ralentie au niveau du nœud auriculo-  ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation auriculaire progresse de l’épicarde vers l'endocarde.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est assimilée au volume du ventricule en fin de diastole et dépend du retour veineux.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque est de 100 battements par minute et le volume d'éjection systolique est de 80 ml/battement, le débit cardiaque est de SL par minute,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling, ou régulation homéométrique, permet l'adaptation du volume d'éjection systolique au niveau de remplissage ventriculaire de manière automatique et instantanée pour assurer un débit cardiaque approprié.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La durée de l'intervalle QT est fonction du rythme cardiaque.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation auriculaire n'est pas visible sur l'ECG en raison de sa faible amplitude qui est masquée par le complexe QRS,     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en D1, positif en aVF et négatif en aVL, l'axe du cœur se situe entre +60 et +90°C    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. La compliance est un index de distension de la paroi du vaisseau, exprimé selon la relation: Ç = AP/ AV    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation de la paroi ventriculaire permet de réduire la  contrainte o qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rayon des vaisseaux est le principal déterminant du débit sanguin.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une insuffisance cardiaque systolique, la FEV est réduite et &lt; 40%   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une décompensation cardiaque droite peut entraîner un œdème pulmonaire hémodynamique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une sténose aortique augmente la postcharge du ventricule gauche.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La lidocaïne et la tétrodotoxine (TTX).inhibent la phase 1 du potentiel d'action du cardiomyocyte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse de conduction est ralentie au niveau du nœud auriculo-ventriculaire où elle est de 0,05 m/sec    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le nœud sinusal est principalement innervé par le nerf vague gauche.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le ler bruit du cœur est lié à la fermeture des valves mitrale et tricuspide.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase de contraction isovolumétrique et la phase d'éjection constituent la systole..    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque augmente, la durée de la diastole et la durée de la systole sont réduites de manière identique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PA... = 116 mmHg et PA. = 80 mmHg, la PA moyenne est égale à 92 mmHg    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée diminue lorsque l'individu devient plus âgé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un exercice physique, la pression artérielle moyenne reste relativement stable dans la mesure où le débit cardiaque augmente et les résistances vasculaires périphériques diminuent.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité de la pompe musculaire des membres inférieurs augmente le retour veineux et la pression veineuse centrale,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une transfusion, le croisement des courbes de fonction cardiaque et veineuse est déplacé vers le haut et  la gauche.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toutes les veines ont une compliance élevée et similaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la précharge augmente, la longueur des fibres augmente et le volume télédiastolique augmente.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 6,4L/min et la fréquence cardiaque est de 80 battements par minute, le volume télésystolique est de 80 ml par battement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contractilité d'une fibre musculaire cardiaque peut être définie comme le changement de sa tension isométrique maximale à une longueur donnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression systolique dans l'aorte et le ventricule gauche est + 5 fois plus élevée que dans l'artère pulmonaire et le ventricule droit.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 2e bruit du cœur est lié à la fermeture des valves aortique et pulmonaire,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la phase de relaxation isovolumétrique du ventricule, la valve mitrale est fermée et la valve aortique est encore ouverte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité de la fibre musculaire cardiaque augmente, la relation force vitesse est déplacée vers le haut et la droite.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La courbe de tension de repos de la fibre musculaire cardiaque fixe la limite de son raccourcissement  lorsqu'elle soumise à un poids constant.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation de la postcharge diminue la vitesse de raccourcissement de la fibre musculaire cardiaque à une longueur initiale donnée càd à une précharge donnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée augmente lorsque la compliance aortique augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors du passage de la position assise à la station debout, la régulation de la PA moyenne s'opère  immédiatement, par l’activité des barorécepteurs du système vasculaire à haute pression.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PA,,, = 120 mmHg et la PAsss = 75 mmHg, la PA moyenne calculée est égale à 90 mmHg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une embolie pulmonaire massive augmente brutalement la postcharge du ventricule droit et du ventricule gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une insuffisance cardiaque diastolique, le débit cardiaque est insuffisant mais la fraction d'éjection  ventriculaire reste préservée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling permet de comprendre que, dans les conditions physiologiques, le VES s'adapte automatiquement à la valeur du volume télédiastolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sur la courbe pression-volume, la diastole correspond à la phase de relaxation isovolumétrique du ventricule et à la phase de remplissage passif du ventricule.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque est de 80 battements par minute, le volume télésystolique est de 60 ml et le  volume télédiastolique est de 120 ml, le débit cardiaque est de 4,8L/min.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation homéométrique est un changement de contractilité, indépendamment de la précharge et de la postcharge,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La résistance totale périphérique (RTP) qui s'exprime en [{mmHg.min/L] peut être calculée d'après la formule: RTP = PA,,,/DC   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression artérielle moyenne augmente, la fréquence de décharge des barorécepteurs de la paroi du  sinus carotidien et de l’arc aortique diminue.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée est proportionnelle au volume d'éjection systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde P de l'ECG représente la repolarisation auriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DIIT et égal à 0 en aVR, l'axe du coeur est à 120°, ce qui correspond à une déviation axiale droite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde T positive d'un ECG normal est liée à la repolarisation ventriculaire qui progresse de l'épicarde vers l'endocarde.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d'une structure creuse est inversement proportionnelle à la pression qui y règne et à son rayon.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse du courant sanguin est la plus élevée au niveau du réseau artériel où la surface de section est la plus    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, lors d'une vasoconstriction qui réduit le rayon d'un vaisseau de moitié, le débit sanguin diminue de 8 fois.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance des veines périphérique est +25 fois supérieure à la compliance des veines centrales.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de l'exercice, le retour veineux est notamment favorisé par l'augmentation de la pompe respiratoire.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale est la pression qui règne au niveau au niveau de la partie thoracique des veines caves, au niveau de l'oreillette droite et au niveau du ventricule droit.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle moyenne est mesurée en routine clinique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'une perturbation se produit, la régulation de la PA s'opère immédiatement, par l'activité des  barorécepteurs du système vasculaire à haute et à basse pression.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active du sarcomère d'un cardiomyocyte est maximale lorsque la longueur de repos du sarcomère se situe entre 2,2 et 2,4 um.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A chaque longueur d'une fibre musculaire cardiaque, la tension isométrique maximale qu'elle peut exercer  représente la somme de sa tension de repos et de sa tension active.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la fibre musculaire cardiaque, la noradrénaline augmente V_A ,.,, mais sans modifier la tension isométrique maximale,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon l'équation de Kassirer-Bleich, lorsque PCO2 = 27 mmHg et [HCO2] = 9 mEg/L, [H°] = 72 nM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu normal et ayant un régime occidental, une sécrétion tubulaire de 70 mEg/j de H° est nécessaire pour assurer la réabsorption du HCO2 filtré quotidiennement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'excrétion urinaire nette et quotidienne de H° = acidité titrable + ammonium — excrétion résiduelle de HCO2 (l'acidité titrable, l'ammonium et le HCO2 étant mesurés sur les urines de 24h)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau veineux périphérique est un réseau capacitif qui contient +35 à 40% du sang.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le compartiment veineux central est situé entre le compartiment veineux périphérique et le ventricule droit.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente lors de la vasoconstriction veineuse,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'aorte dont l'élastance est élevée a une compliance faible.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique innerve les cardiomyocytes auriculaires et ventriculaires, le nœud sinusal et le  nœud auriculo-ventriculaire, par effet Beta-2.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire est une circulation à haut débit et à basse pression.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Laplace appliquée au ventricule, &amp; est la contrainte qui s'exerce au niveau de la paroi et qui est proportionnelle à l'épaisseur de cette paroi.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, lorsque le rayon d'un vaisseau est doublé, le débit sanguin est multiplié  par 16.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse du courant sanguin est de l'ordre de 0,5 mm/sec au niveau du réseau capillaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DI et est positif en a VF, l'axe du cœur se situe entre O et -30°    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En absence d'onde P visible à l'ECG, le rythme peut être sinusal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'un infarctus transmural s'est produit, une onde Q est visible au niveau des dérivations sous lesquelles se trouve le myocarde infarci.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique innerve le nœud sinusal (surtout via le nerf vague gauche) et le nœud auriculo- ventriculaire (surtout via le nerf vague droit).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les artérioles représentent le lieu principal de la résistance à l'écoulement du sang dans la mesure où la chute  de pression qui s'exerce à leur niveau est la plus importante,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit sanguin de circulation pulmonaire est toujours égal au débit sanguin de la circulation systémique dans la mesure où ces deux circulations sont en série.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un infarctus du myocarde peut entraîner une insuffisance cardiaque systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le retour veineux augmente, le volume télédiastolique augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En transposant les propriétés de la fibre musculaire cardiaque isolée au ventricule, on peut considérer que  l'importance du raccourcissement de la fibre correspond correspond à la vitesse d'éjection du ventricule.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'inotropisme du muscle cardiaque est sa force de contraction qui dépend de la précharge et de la postcharge auxquelles il est soumis.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente l'amplitude du raccourcissement de la fibre musculaire lors de la contraction  isotonique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les conditions physiologiques, les sarcomères du cardiomyocyte ont une longueur de 0,9 um, ce qui permet d'augmenter leur tension active lorsque la fibre est étirée jusqu'à 2.2-2,4 um.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le premier bruit du cœur est lié à la fermeture des valves aortique et pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La durée d’un cycle cardiaque est l'inverse de la fréquence cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télésystolique normal et au repos est de l'ordre de 50 à 60 ml.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une augmentation de l’élastance diminue le volume télédiastolique pour une pression télédiastolique donnée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hypertension artérielle au long cours conduit à une hypertrophie du ventricule gauche qui débouche sur une diminution de la postcharge et de la précharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modifier la droite d'élastance de fin de systole revient à changer la contractilité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si l’aorte était un tuyau complètement rigide, les pressions artérielles systoliques et diastoliques seraient très élevées.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En cas d'hypertension aiguë, l'activation des barorécepteurs résulte notamment en une diminution du volume d'éjection systolique liée à une diminution de la précharge et de la contractilité.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tous les médicaments anti-hypertenseurs agissent soit par une diminution du volume d’éjection systolique, soit par une diminution de la fréquence cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 10 L/minute, la fréquence cardiaque de 100/minute et le volume télédiastolique de 150 mil, alors la fraction d'éjection est de 66%.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une fraction d'éjection de 30% peut se voir dans une sténose aortique du fait d’une contrainte o du ventricule  gauche augmentée même si la tension artérielle est basse.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fraction d'éjection est souvent conservée dans la dysfonction diastolique alors que le débit cardiaque est diminué.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comme conséquence d’une hypertension artérielle systémique non traitée au long cours, on ne sera pas surpris que le QRS soit isoélectrique en DII et négatif en aVF.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les ondes P et QRS apparaissent régulièrement mais la fréquence des P est plus élevée que celle des QRS et le  rythme cardiaque est de 45/minute. Cela suggère un bloc complet au niveau du nœud auriculo-ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un bloc de branche droit ou gauche donnera inévitablement un allongement du QRS.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si l'amplitude du QRS net semble être négative en aVF et très positive en aVL, une hypertrophie du ventricule droit est plausible.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un aspect qR est classique en V6.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde T positive après une dépolarisation électriquement globalement positive s'explique par le fait que la repolarisation du ventricule se fait de l'endocarde vers l'épicarde.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle moyenne augmente car les résistances périphériques totales diminuent plus que le débit cardiaque n'augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée augmente car la pression artérielle moyenne augmente,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente du fait de la veino-constriction et de l'activité pompe musculaire et abdomino-thoracique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une modification de l'élastance affecte avant tout la fonction systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hypertrophie du ventricule gauche entraîne secondairement une diminution de la postcharge et de la précharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une modification du retour veineux va affecter la droite d'élastance de fin de systole.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le tonus orthosympathique détermine la fréquence cardiaque de repos.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inotrope ou contractilité, chronotrope ou vitesse de conduction et dromotrope ou fréquence cardiaque: ces trois caractéristiques sont activées par la stimulation orthosympathique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La simulation orthosympathique augmente la pente du potentiel pace-maker.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les augmentations de précharge, postcharge ou contractilité augmentent la consommation d'oxygène par le cœur mais celle qui l'augmente le moins est l'augmentation de précharge.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un médicament inotrope positif qui augmente le volume d'éjection systolique est excellent pour la perfusion coronaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'essentiel de l'énergie dépensée par le cœur se produit pendant la phase d'éjection ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Par comparaison avec l'augmentation du raccourcissement d'une fibre myocardique isolée sous l'effet d'un agent inotrope, on utilisera l'amélioration de la fraction d'éjection à l'échelon du ventricule entier.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation isolée de la précharge implique une augmentation du volume d'éjection systolique à une vitesse  d'éjection plus rapide jusqu'à un volume télésystolique plus petit.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation isolée de la postcharge implique un volume télésystolique plus grand et une vitesse d’éjection moins rapide.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La postcharge correspond au © du ventricule gauche durant tout le temps de l’éjection ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dilatation du ventricule augmente la postcharge et la précharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Précharge, postcharge et contractilité sont liées. Par exemple, une augmentation de la postcharge mène immédiatement à une augmentation de la précharge qui est suffisante pour corriger le volume d'éjection systolique.    </t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1355,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1369,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1383,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1397,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1411,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1425,10 +1509,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1439,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1453,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1467,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1481,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1495,10 +1579,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1508,8 +1592,11 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1522,8 +1609,11 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1536,8 +1626,11 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1550,14 +1643,11 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1567,14 +1657,11 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1584,11 +1671,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1602,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1616,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1630,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1643,11 +1727,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1660,11 +1741,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1677,11 +1755,8 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1694,11 +1769,8 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1711,11 +1783,8 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1728,11 +1797,8 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1745,14 +1811,11 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1762,14 +1825,11 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1779,11 +1839,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1797,10 +1854,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1811,10 +1868,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1825,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1838,8 +1895,11 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1852,11 +1912,14 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1866,8 +1929,11 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1881,7 +1947,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1895,7 +1961,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1909,7 +1975,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1923,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1937,7 +2003,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1951,10 +2017,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1964,11 +2030,14 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1978,11 +2047,14 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1992,11 +2064,14 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2007,7 +2082,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2021,10 +2096,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2035,10 +2110,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2049,10 +2124,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2063,10 +2138,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2077,7 +2152,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2091,10 +2166,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2105,7 +2180,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2119,10 +2194,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2133,7 +2208,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -2147,7 +2222,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -2161,7 +2236,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2174,110 +2249,95 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2290,8 +2350,11 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -2304,11 +2367,14 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -2318,11 +2384,14 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -2332,8 +2401,11 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2346,8 +2418,11 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -2360,8 +2435,11 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -2374,11 +2452,14 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -2388,8 +2469,11 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2406,10 +2490,10 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -2423,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2440,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2457,13 +2541,13 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2474,13 +2558,13 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2491,13 +2575,13 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2508,13 +2592,13 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2525,13 +2609,13 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2542,13 +2626,13 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2559,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2576,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2593,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2610,10 +2694,10 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -2627,7 +2711,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -2644,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2661,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -2678,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -2695,7 +2779,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -2712,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -2729,10 +2813,10 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -2746,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2759,42 +2843,51 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2802,16 +2895,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2819,16 +2912,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2836,30 +2929,27 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>18</v>
-      </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -2869,14 +2959,11 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>18</v>
-      </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -2886,11 +2973,8 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -2907,7 +2991,7 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -2924,7 +3008,7 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -2941,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -2958,7 +3042,7 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -2975,10 +3059,10 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -2992,10 +3076,10 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -3009,7 +3093,7 @@
         <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3026,7 +3110,7 @@
         <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3043,7 +3127,7 @@
         <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -3060,13 +3144,13 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3077,13 +3161,13 @@
         <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3094,13 +3178,13 @@
         <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3111,13 +3195,13 @@
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3128,13 +3212,13 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3145,24 +3229,27 @@
         <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>6</v>
@@ -3172,8 +3259,11 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
       <c r="C120" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3186,8 +3276,11 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -3201,10 +3294,10 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -3215,7 +3308,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -3229,10 +3322,10 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>6</v>
@@ -3243,7 +3336,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -3257,10 +3350,10 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>6</v>
@@ -3271,10 +3364,10 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>6</v>
@@ -3284,8 +3377,11 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -3298,8 +3394,11 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -3312,8 +3411,11 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -3326,11 +3428,8 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>24</v>
-      </c>
       <c r="C131" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -3343,11 +3442,8 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>24</v>
-      </c>
       <c r="C132" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -3360,11 +3456,8 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>24</v>
-      </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -3377,102 +3470,84 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
-        <v>25</v>
-      </c>
       <c r="C134" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
-        <v>25</v>
-      </c>
       <c r="C135" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>25</v>
-      </c>
       <c r="C136" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>26</v>
-      </c>
       <c r="C137" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>26</v>
-      </c>
       <c r="C138" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>26</v>
-      </c>
       <c r="C139" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3480,10 +3555,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -3497,10 +3572,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -3514,13 +3589,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>7</v>
@@ -3531,13 +3606,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>7</v>
@@ -3548,13 +3623,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>7</v>
@@ -3565,10 +3640,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -3582,10 +3657,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -3599,13 +3674,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>7</v>
@@ -3616,13 +3691,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>7</v>
@@ -3633,13 +3708,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -3650,10 +3725,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C150" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -3667,10 +3742,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -3684,16 +3759,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3701,16 +3776,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
       </c>
       <c r="E153">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3718,16 +3793,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3735,16 +3810,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
       </c>
       <c r="E155">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3752,16 +3827,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3769,16 +3844,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C157" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3786,10 +3861,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -3803,13 +3878,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C159" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>8</v>
@@ -3820,10 +3895,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -3837,10 +3912,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C161" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -3854,13 +3929,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>8</v>
@@ -3871,13 +3946,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <v>8</v>
@@ -3888,10 +3963,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C164" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -3905,10 +3980,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C165" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -3922,10 +3997,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C166" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -3939,13 +4014,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -3956,13 +4031,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -3973,10 +4048,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -3990,16 +4065,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4007,16 +4082,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4024,16 +4099,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4041,16 +4116,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
       </c>
       <c r="E173">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4058,16 +4133,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C174" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4075,16 +4150,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
       </c>
       <c r="E175">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4092,10 +4167,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -4109,10 +4184,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -4126,13 +4201,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
         <v>9</v>
@@ -4143,10 +4218,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C179" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -4160,10 +4235,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -4177,13 +4252,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
         <v>9</v>
@@ -4197,7 +4272,7 @@
         <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -4214,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -4231,7 +4306,7 @@
         <v>40</v>
       </c>
       <c r="C184" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -4248,13 +4323,13 @@
         <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
       </c>
       <c r="E185">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4265,13 +4340,13 @@
         <v>41</v>
       </c>
       <c r="C186" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4282,13 +4357,13 @@
         <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
       </c>
       <c r="E187">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4296,16 +4371,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C188" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4313,16 +4388,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C189" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4330,16 +4405,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C190" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4347,10 +4422,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -4364,10 +4439,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -4381,10 +4456,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C193" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D193" t="b">
         <v>1</v>
@@ -4398,10 +4473,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C194" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -4415,10 +4490,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C195" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -4432,13 +4507,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C196" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196">
         <v>10</v>
@@ -4449,10 +4524,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -4466,10 +4541,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C198" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -4483,10 +4558,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C199" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -4500,16 +4575,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C200" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4517,16 +4592,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C201" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
       </c>
       <c r="E201">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4534,16 +4609,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
       </c>
       <c r="E202">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4551,16 +4626,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4568,16 +4643,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C204" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4585,16 +4660,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C205" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4602,16 +4677,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C206" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4619,16 +4694,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
       </c>
       <c r="E207">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4636,16 +4711,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C208" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4653,16 +4728,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4670,16 +4745,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C210" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4687,16 +4762,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C211" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4704,16 +4779,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4721,16 +4796,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C213" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4738,16 +4813,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C214" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4755,16 +4830,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C215" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
       </c>
       <c r="E215">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4772,16 +4847,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C216" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4789,16 +4864,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C217" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4806,16 +4881,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4823,16 +4898,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C219" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
       </c>
       <c r="E219">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4840,16 +4915,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
       </c>
       <c r="E220">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4857,16 +4932,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C221" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
       </c>
       <c r="E221">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4874,16 +4949,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C222" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4891,16 +4966,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C223" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4908,16 +4983,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C224" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4925,16 +5000,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C225" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
       </c>
       <c r="E225">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4942,16 +5017,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C226" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4959,16 +5034,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C227" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4976,16 +5051,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4993,16 +5068,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C229" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
       </c>
       <c r="E229">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5010,16 +5085,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C230" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5027,16 +5102,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C231" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5044,16 +5119,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C232" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
       </c>
       <c r="E232">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5061,16 +5136,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5078,16 +5153,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C234" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
       </c>
       <c r="E234">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5095,16 +5170,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C235" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5112,16 +5187,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C236" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5129,16 +5204,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C237" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
       </c>
       <c r="E237">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5146,16 +5221,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C238" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
       </c>
       <c r="E238">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5163,16 +5238,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C239" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5180,16 +5255,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C240" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D240" t="b">
         <v>1</v>
       </c>
       <c r="E240">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5197,16 +5272,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5217,13 +5292,13 @@
         <v>59</v>
       </c>
       <c r="C242" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
       </c>
       <c r="E242">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5234,13 +5309,13 @@
         <v>59</v>
       </c>
       <c r="C243" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D243" t="b">
         <v>1</v>
       </c>
       <c r="E243">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5251,13 +5326,13 @@
         <v>59</v>
       </c>
       <c r="C244" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
       </c>
       <c r="E244">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5268,7 +5343,7 @@
         <v>60</v>
       </c>
       <c r="C245" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
@@ -5285,7 +5360,7 @@
         <v>60</v>
       </c>
       <c r="C246" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -5302,10 +5377,10 @@
         <v>60</v>
       </c>
       <c r="C247" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>16</v>
@@ -5319,7 +5394,7 @@
         <v>61</v>
       </c>
       <c r="C248" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -5336,7 +5411,7 @@
         <v>61</v>
       </c>
       <c r="C249" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
@@ -5353,10 +5428,10 @@
         <v>61</v>
       </c>
       <c r="C250" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <v>16</v>
@@ -5370,13 +5445,13 @@
         <v>62</v>
       </c>
       <c r="C251" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
       </c>
       <c r="E251">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5387,13 +5462,13 @@
         <v>62</v>
       </c>
       <c r="C252" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D252" t="b">
         <v>1</v>
       </c>
       <c r="E252">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5404,12 +5479,369 @@
         <v>62</v>
       </c>
       <c r="C253" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
       </c>
       <c r="E253">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>63</v>
+      </c>
+      <c r="C254" t="s">
+        <v>322</v>
+      </c>
+      <c r="D254" t="b">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>63</v>
+      </c>
+      <c r="C255" t="s">
+        <v>323</v>
+      </c>
+      <c r="D255" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>63</v>
+      </c>
+      <c r="C256" t="s">
+        <v>324</v>
+      </c>
+      <c r="D256" t="b">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>64</v>
+      </c>
+      <c r="C257" t="s">
+        <v>325</v>
+      </c>
+      <c r="D257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>64</v>
+      </c>
+      <c r="C258" t="s">
+        <v>326</v>
+      </c>
+      <c r="D258" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>64</v>
+      </c>
+      <c r="C259" t="s">
+        <v>327</v>
+      </c>
+      <c r="D259" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>65</v>
+      </c>
+      <c r="C260" t="s">
+        <v>328</v>
+      </c>
+      <c r="D260" t="b">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>65</v>
+      </c>
+      <c r="C261" t="s">
+        <v>329</v>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>65</v>
+      </c>
+      <c r="C262" t="s">
+        <v>330</v>
+      </c>
+      <c r="D262" t="b">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>66</v>
+      </c>
+      <c r="C263" t="s">
+        <v>331</v>
+      </c>
+      <c r="D263" t="b">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>66</v>
+      </c>
+      <c r="C264" t="s">
+        <v>332</v>
+      </c>
+      <c r="D264" t="b">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>66</v>
+      </c>
+      <c r="C265" t="s">
+        <v>333</v>
+      </c>
+      <c r="D265" t="b">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>67</v>
+      </c>
+      <c r="C266" t="s">
+        <v>334</v>
+      </c>
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>67</v>
+      </c>
+      <c r="C267" t="s">
+        <v>335</v>
+      </c>
+      <c r="D267" t="b">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>67</v>
+      </c>
+      <c r="C268" t="s">
+        <v>336</v>
+      </c>
+      <c r="D268" t="b">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>68</v>
+      </c>
+      <c r="C269" t="s">
+        <v>337</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>68</v>
+      </c>
+      <c r="C270" t="s">
+        <v>338</v>
+      </c>
+      <c r="D270" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>68</v>
+      </c>
+      <c r="C271" t="s">
+        <v>339</v>
+      </c>
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>69</v>
+      </c>
+      <c r="C272" t="s">
+        <v>340</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>69</v>
+      </c>
+      <c r="C273" t="s">
+        <v>341</v>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>69</v>
+      </c>
+      <c r="C274" t="s">
+        <v>342</v>
+      </c>
+      <c r="D274" t="b">
+        <v>0</v>
+      </c>
+      <c r="E274">
         <v>17</v>
       </c>
     </row>

--- a/Physiopathologie/Excel/test traitement image/test.xlsx
+++ b/Physiopathologie/Excel/test traitement image/test.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\test traitement image\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEECF9E-077E-4408-9E6B-DA722301B0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="387">
   <si>
     <t>Question</t>
   </si>
@@ -226,6 +232,39 @@
     <t xml:space="preserve">Q28. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
+    <t xml:space="preserve">Q16. En considérant la régulation parasympathique et sympathique du cœur, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. En considérant le muscle cardiaque, la précharge, la postcharge et la contractilité, caractériser par  ou  chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. En considérant le travail cardiaque et la perfusion coronaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant la circulation pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q39. Concernant la fraction d'éjection, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant l'exercice, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28. Concernant l'électrocardiogramme, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23. Concernant l'électrocardiogramme, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. En considérant les adaptations cardiovasculaires à l'exercice, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q40. Concernant la tension artérielle, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Soit une sphère dont l'épaisseur de la paroi est négligeable. Lorsque le rayon de la sphère = 4 cm et la pression transmurale = 8 dyne.cm”, la tension qui s'exerce au niveau de la paroi est de 16 dyne.cm"  </t>
   </si>
   <si>
@@ -1043,13 +1082,112 @@
   </si>
   <si>
     <t xml:space="preserve"> Précharge, postcharge et contractilité sont liées. Par exemple, une augmentation de la postcharge mène immédiatement à une augmentation de la précharge qui est suffisante pour corriger le volume d'éjection systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le tonus parasympathique détermine la fréquence cardiaque de repos.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inotrope ou contractilité, chronotrope ou fréquence et dromotrope ou vitesse de conduction: ces trois caractéristiques sont activées par la stimulation orthosympathique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La simulation parasympathique augmente la pente du potentiel pace-maker.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fraction d'éjection du ventricule est un reflet de la contractilité.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation isolée de la précharge implique une augmentation du volume d'éjection systolique avec un  volume télésystolique identique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse d'éjection augmente si la contractilité augmente mais diminue si la précharge ou la postcharge augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les augmentations de postcharge ou de contractilité augmentent la consommation d'oxygène par le cœur mais  l'augmentation de la précharge diminue cette consommation.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un médicament beta bloquant est excellent pour la perfusion coronaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'essentiel de l'énergie dépensée par le cœur se produit pendant la phase de contraction isovolumétrique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La postcharge correspond au © du ventricule gauche au moment unique de l'ouverture de la valve aortique et là précharge correspond au volume télédiastolique,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dilatation du ventricule augmente la postcharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Précharge, postcharge et contractilité sont liées. Par exemple, une diminution de la postcharge mène immédiatement à une diminution de la précharge qui aboutit à une augmentation du volume d'éjection systolique moins grand qu'attendu.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les résistances vasculaires pulmonaires sont obtenues par calcul.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'investigation des mécanismes d'une hypertension pulmonaire nécessite une évaluation du débit cardiaque,  des résistances vasculaires pulmonaires et des pressions d'oreillette droite.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vasoconstriction pulmonaire est responsable d'un shunt,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 5 L/minute, la fréquence cardiaque de 100/minute et le volume télédiastolique de 150 ml, on peut conclure qu'il existe une dysfonction systolique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans une insuffisance aortique, le flux net peut être diminué alors que la fraction d'éjection est augmentée,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit cardiaque est diminué dans les dysfonctions systoliques et diastoliques.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au terme d'un effort important chez un sujet normal d'âge moyen, les résultats de mesure suivants sont classiques : fréquence cardiaque: 175/min; VE : 90 L/min et VO2 : 3000 ml/min    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fréquence cardiaque maximale peut-être estimée par la formule suivante: 240 - âge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au cours d'un effort progressif chez un sujet, à partir du seuil ventilatoire, la VO2 augmente plus pour une  augmentation de charge donnée.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans une fibrillation auriculaire, l'onde P disparaît et le rythme est généré par le nœud auriculo-ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation de l'oreillette est masquée par la dépolarisation du ventricule.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un bloc de branche droit ou gauche donnera inévitablement un allongement de l'onde P.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si l'amplitude du QRS net semble être négative en D1 et très positive en D3, cela peut rentrer dans le cadre d'une hypertension artérielle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un aspect OR est classique en V1.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde R augmente classiquement de V1 à V6.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle moyenne reste constante mais la pression pulsée augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les résistances périphériques totales baissent bien que certains territoires sont l'objet d'une vasoconstriction.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente du fait de la constriction veineuse et de l'activité pompe musculaire et abdomino-thoracique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diminution de la compliance aortique avec l'âge s'accompagne d'une augmentation des pressions artérielles systoliques et diastoliques.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En cas d'hypotension aiguë, l'activation des barorécepteurs résulte notamment en une augmentation du  volume d'éjection systolique liée à une augmentation de la précharge et de la contractilité.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natriurèse et diurèse de pression sont un mécanisme lent de correction de la tension artérielle et dont le gain est limité.    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,13 +1250,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1156,7 +1302,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1190,6 +1336,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1224,9 +1371,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1399,14 +1547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="C296" sqref="C296"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="221.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,12 +1573,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1434,12 +1587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1448,12 +1601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1462,12 +1615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1476,12 +1629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1490,12 +1643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1504,12 +1657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1518,12 +1671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1532,12 +1685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1546,12 +1699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1560,12 +1713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1574,12 +1727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1588,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1596,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1605,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1613,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1622,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1630,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1639,12 +1792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1653,12 +1806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1667,12 +1820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1681,12 +1834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1695,12 +1848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1709,12 +1862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1723,12 +1876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1737,12 +1890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1751,12 +1904,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1765,12 +1918,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1779,12 +1932,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1793,12 +1946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1807,12 +1960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1821,12 +1974,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1835,12 +1988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1849,12 +2002,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1863,12 +2016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -1877,12 +2030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1891,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1899,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1908,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1916,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1925,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1933,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1942,12 +2095,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1956,12 +2109,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1970,12 +2123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1984,12 +2137,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1998,12 +2151,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -2012,12 +2165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2026,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2034,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -2043,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2051,7 +2204,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -2060,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2068,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -2077,12 +2230,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2091,12 +2244,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -2105,12 +2258,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -2119,12 +2272,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -2133,12 +2286,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2147,12 +2300,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2161,12 +2314,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -2175,12 +2328,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2189,12 +2342,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2203,12 +2356,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -2217,12 +2370,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -2231,12 +2384,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2245,12 +2398,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -2259,12 +2412,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2273,12 +2426,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2287,12 +2440,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -2301,12 +2454,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2315,12 +2468,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -2329,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2337,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2346,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2354,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -2363,7 +2516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2371,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2380,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2388,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2397,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2405,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2414,7 +2567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2422,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -2431,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2439,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -2448,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2456,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2465,7 +2618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2473,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2482,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2490,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2499,7 +2652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2507,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2516,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2524,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -2533,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2541,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2550,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2558,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -2567,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2575,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -2584,7 +2737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2592,7 +2745,7 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2601,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2609,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2618,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2626,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -2635,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2643,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2652,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2660,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2669,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2677,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2686,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2694,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -2703,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2711,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -2720,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2728,7 +2881,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2737,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2745,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -2754,7 +2907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2762,7 +2915,7 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -2771,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2779,7 +2932,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -2788,7 +2941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2796,7 +2949,7 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -2805,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2813,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -2822,7 +2975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2830,7 +2983,7 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2839,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2847,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -2856,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2864,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -2873,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2881,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -2890,7 +3043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2898,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -2907,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2915,7 +3068,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -2924,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2932,7 +3085,7 @@
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -2941,12 +3094,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -2955,12 +3108,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -2969,12 +3122,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -2983,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2991,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -3000,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3008,7 +3161,7 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -3017,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3025,7 +3178,7 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3034,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3042,7 +3195,7 @@
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -3051,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3059,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -3068,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3076,7 +3229,7 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3085,7 +3238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3093,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3102,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3110,7 +3263,7 @@
         <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3119,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3127,7 +3280,7 @@
         <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -3136,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3144,7 +3297,7 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3153,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3161,7 +3314,7 @@
         <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3170,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3178,7 +3331,7 @@
         <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -3187,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3195,7 +3348,7 @@
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
@@ -3204,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3212,7 +3365,7 @@
         <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -3221,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3229,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -3238,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3246,7 +3399,7 @@
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -3255,7 +3408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3263,7 +3416,7 @@
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3272,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3280,7 +3433,7 @@
         <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -3289,12 +3442,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -3303,12 +3456,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -3317,12 +3470,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -3331,12 +3484,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -3345,12 +3498,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -3359,12 +3512,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -3373,7 +3526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3381,7 +3534,7 @@
         <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -3390,7 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3398,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -3407,7 +3560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3415,7 +3568,7 @@
         <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -3424,12 +3577,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -3438,12 +3591,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -3452,12 +3605,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -3466,12 +3619,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -3480,12 +3633,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -3494,12 +3647,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -3508,12 +3661,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -3522,12 +3675,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -3536,12 +3689,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -3550,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3558,7 +3711,7 @@
         <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -3567,7 +3720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3575,7 +3728,7 @@
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -3584,7 +3737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3592,7 +3745,7 @@
         <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -3601,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3609,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -3618,7 +3771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3626,7 +3779,7 @@
         <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -3635,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3643,7 +3796,7 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -3652,7 +3805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3660,7 +3813,7 @@
         <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -3669,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3677,7 +3830,7 @@
         <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -3686,7 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3694,7 +3847,7 @@
         <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -3703,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3711,7 +3864,7 @@
         <v>29</v>
       </c>
       <c r="C149" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -3720,7 +3873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3728,7 +3881,7 @@
         <v>29</v>
       </c>
       <c r="C150" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -3737,7 +3890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3745,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="C151" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -3754,7 +3907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3762,7 +3915,7 @@
         <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -3771,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3779,7 +3932,7 @@
         <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -3788,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3796,7 +3949,7 @@
         <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -3805,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3813,7 +3966,7 @@
         <v>31</v>
       </c>
       <c r="C155" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -3822,7 +3975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3830,7 +3983,7 @@
         <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -3839,7 +3992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3847,7 +4000,7 @@
         <v>31</v>
       </c>
       <c r="C157" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -3856,7 +4009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3864,7 +4017,7 @@
         <v>32</v>
       </c>
       <c r="C158" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -3873,7 +4026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3881,7 +4034,7 @@
         <v>32</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -3890,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3898,7 +4051,7 @@
         <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -3907,7 +4060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3915,7 +4068,7 @@
         <v>33</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -3924,7 +4077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3932,7 +4085,7 @@
         <v>33</v>
       </c>
       <c r="C162" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -3941,7 +4094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3949,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -3958,7 +4111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3966,7 +4119,7 @@
         <v>34</v>
       </c>
       <c r="C164" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -3975,7 +4128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3983,7 +4136,7 @@
         <v>34</v>
       </c>
       <c r="C165" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -3992,7 +4145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4000,7 +4153,7 @@
         <v>34</v>
       </c>
       <c r="C166" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -4009,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4017,7 +4170,7 @@
         <v>35</v>
       </c>
       <c r="C167" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -4026,7 +4179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4034,7 +4187,7 @@
         <v>35</v>
       </c>
       <c r="C168" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -4043,7 +4196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4051,7 +4204,7 @@
         <v>35</v>
       </c>
       <c r="C169" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -4060,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4068,7 +4221,7 @@
         <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -4077,7 +4230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4085,7 +4238,7 @@
         <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -4094,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4102,7 +4255,7 @@
         <v>36</v>
       </c>
       <c r="C172" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
@@ -4111,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4119,7 +4272,7 @@
         <v>37</v>
       </c>
       <c r="C173" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -4128,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4136,7 +4289,7 @@
         <v>37</v>
       </c>
       <c r="C174" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -4145,7 +4298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4153,7 +4306,7 @@
         <v>37</v>
       </c>
       <c r="C175" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -4162,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4170,7 +4323,7 @@
         <v>38</v>
       </c>
       <c r="C176" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -4179,7 +4332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4187,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -4196,7 +4349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4204,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="C178" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -4213,7 +4366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4221,7 +4374,7 @@
         <v>39</v>
       </c>
       <c r="C179" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -4230,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4238,7 +4391,7 @@
         <v>39</v>
       </c>
       <c r="C180" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -4247,7 +4400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4255,7 +4408,7 @@
         <v>39</v>
       </c>
       <c r="C181" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -4264,7 +4417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4272,7 +4425,7 @@
         <v>40</v>
       </c>
       <c r="C182" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -4281,7 +4434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4289,7 +4442,7 @@
         <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -4298,7 +4451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4306,7 +4459,7 @@
         <v>40</v>
       </c>
       <c r="C184" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
@@ -4315,7 +4468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4323,7 +4476,7 @@
         <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -4332,7 +4485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4340,7 +4493,7 @@
         <v>41</v>
       </c>
       <c r="C186" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -4349,7 +4502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4357,7 +4510,7 @@
         <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -4366,7 +4519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4374,7 +4527,7 @@
         <v>42</v>
       </c>
       <c r="C188" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -4383,7 +4536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4391,7 +4544,7 @@
         <v>42</v>
       </c>
       <c r="C189" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -4400,7 +4553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4408,7 +4561,7 @@
         <v>42</v>
       </c>
       <c r="C190" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -4417,7 +4570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4425,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -4434,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4442,7 +4595,7 @@
         <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -4451,7 +4604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4459,7 +4612,7 @@
         <v>43</v>
       </c>
       <c r="C193" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D193" t="b">
         <v>1</v>
@@ -4468,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4476,7 +4629,7 @@
         <v>44</v>
       </c>
       <c r="C194" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -4485,7 +4638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4493,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="C195" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -4502,7 +4655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4510,7 +4663,7 @@
         <v>44</v>
       </c>
       <c r="C196" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -4519,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4527,7 +4680,7 @@
         <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -4536,7 +4689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4544,7 +4697,7 @@
         <v>45</v>
       </c>
       <c r="C198" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -4553,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4561,7 +4714,7 @@
         <v>45</v>
       </c>
       <c r="C199" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -4570,7 +4723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4578,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="C200" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -4587,7 +4740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4595,7 +4748,7 @@
         <v>46</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
@@ -4604,7 +4757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4612,7 +4765,7 @@
         <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -4621,7 +4774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4629,7 +4782,7 @@
         <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
@@ -4638,7 +4791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4646,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="C204" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -4655,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4663,7 +4816,7 @@
         <v>47</v>
       </c>
       <c r="C205" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
@@ -4672,7 +4825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4680,7 +4833,7 @@
         <v>48</v>
       </c>
       <c r="C206" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
@@ -4689,7 +4842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4697,7 +4850,7 @@
         <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
@@ -4706,7 +4859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4714,7 +4867,7 @@
         <v>48</v>
       </c>
       <c r="C208" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -4723,7 +4876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4731,7 +4884,7 @@
         <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
@@ -4740,7 +4893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4748,7 +4901,7 @@
         <v>49</v>
       </c>
       <c r="C210" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -4757,7 +4910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4765,7 +4918,7 @@
         <v>49</v>
       </c>
       <c r="C211" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -4774,7 +4927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4782,7 +4935,7 @@
         <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -4791,7 +4944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4799,7 +4952,7 @@
         <v>50</v>
       </c>
       <c r="C213" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -4808,7 +4961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4816,7 +4969,7 @@
         <v>50</v>
       </c>
       <c r="C214" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -4825,7 +4978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4833,7 +4986,7 @@
         <v>51</v>
       </c>
       <c r="C215" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -4842,7 +4995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4850,7 +5003,7 @@
         <v>51</v>
       </c>
       <c r="C216" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -4859,7 +5012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4867,7 +5020,7 @@
         <v>51</v>
       </c>
       <c r="C217" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -4876,7 +5029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4884,7 +5037,7 @@
         <v>52</v>
       </c>
       <c r="C218" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -4893,7 +5046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4901,7 +5054,7 @@
         <v>52</v>
       </c>
       <c r="C219" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -4910,7 +5063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4918,7 +5071,7 @@
         <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -4927,7 +5080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4935,7 +5088,7 @@
         <v>53</v>
       </c>
       <c r="C221" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -4944,7 +5097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4952,7 +5105,7 @@
         <v>53</v>
       </c>
       <c r="C222" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -4961,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4969,7 +5122,7 @@
         <v>53</v>
       </c>
       <c r="C223" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
@@ -4978,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4986,7 +5139,7 @@
         <v>54</v>
       </c>
       <c r="C224" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -4995,7 +5148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5003,7 +5156,7 @@
         <v>54</v>
       </c>
       <c r="C225" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -5012,7 +5165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5020,7 +5173,7 @@
         <v>54</v>
       </c>
       <c r="C226" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
@@ -5029,7 +5182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5037,7 +5190,7 @@
         <v>55</v>
       </c>
       <c r="C227" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
@@ -5046,7 +5199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5054,7 +5207,7 @@
         <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -5063,7 +5216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5071,7 +5224,7 @@
         <v>55</v>
       </c>
       <c r="C229" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -5080,7 +5233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5088,7 +5241,7 @@
         <v>56</v>
       </c>
       <c r="C230" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
@@ -5097,7 +5250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5105,7 +5258,7 @@
         <v>56</v>
       </c>
       <c r="C231" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -5114,7 +5267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5122,7 +5275,7 @@
         <v>56</v>
       </c>
       <c r="C232" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -5131,7 +5284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5139,7 +5292,7 @@
         <v>57</v>
       </c>
       <c r="C233" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -5148,7 +5301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5156,7 +5309,7 @@
         <v>57</v>
       </c>
       <c r="C234" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -5165,7 +5318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5173,7 +5326,7 @@
         <v>57</v>
       </c>
       <c r="C235" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
@@ -5182,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5190,7 +5343,7 @@
         <v>58</v>
       </c>
       <c r="C236" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
@@ -5199,7 +5352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5207,7 +5360,7 @@
         <v>58</v>
       </c>
       <c r="C237" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
@@ -5216,7 +5369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5224,7 +5377,7 @@
         <v>58</v>
       </c>
       <c r="C238" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
@@ -5233,7 +5386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5241,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="C239" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
@@ -5250,7 +5403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5258,7 +5411,7 @@
         <v>43</v>
       </c>
       <c r="C240" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D240" t="b">
         <v>1</v>
@@ -5267,7 +5420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5275,7 +5428,7 @@
         <v>43</v>
       </c>
       <c r="C241" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -5284,7 +5437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5292,7 +5445,7 @@
         <v>59</v>
       </c>
       <c r="C242" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
@@ -5301,7 +5454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5309,7 +5462,7 @@
         <v>59</v>
       </c>
       <c r="C243" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D243" t="b">
         <v>1</v>
@@ -5318,7 +5471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5326,7 +5479,7 @@
         <v>59</v>
       </c>
       <c r="C244" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -5335,7 +5488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5343,7 +5496,7 @@
         <v>60</v>
       </c>
       <c r="C245" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
@@ -5352,7 +5505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5360,7 +5513,7 @@
         <v>60</v>
       </c>
       <c r="C246" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -5369,7 +5522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5377,7 +5530,7 @@
         <v>60</v>
       </c>
       <c r="C247" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
@@ -5386,7 +5539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5394,7 +5547,7 @@
         <v>61</v>
       </c>
       <c r="C248" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -5403,7 +5556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5411,7 +5564,7 @@
         <v>61</v>
       </c>
       <c r="C249" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
@@ -5420,7 +5573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5428,7 +5581,7 @@
         <v>61</v>
       </c>
       <c r="C250" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
@@ -5437,7 +5590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5445,7 +5598,7 @@
         <v>62</v>
       </c>
       <c r="C251" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
@@ -5454,7 +5607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5462,7 +5615,7 @@
         <v>62</v>
       </c>
       <c r="C252" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D252" t="b">
         <v>1</v>
@@ -5471,7 +5624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5479,7 +5632,7 @@
         <v>62</v>
       </c>
       <c r="C253" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
@@ -5488,7 +5641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5496,7 +5649,7 @@
         <v>63</v>
       </c>
       <c r="C254" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
@@ -5505,7 +5658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5513,7 +5666,7 @@
         <v>63</v>
       </c>
       <c r="C255" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
@@ -5522,7 +5675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5530,7 +5683,7 @@
         <v>63</v>
       </c>
       <c r="C256" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D256" t="b">
         <v>0</v>
@@ -5539,7 +5692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5547,7 +5700,7 @@
         <v>64</v>
       </c>
       <c r="C257" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D257" t="b">
         <v>0</v>
@@ -5556,7 +5709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5564,7 +5717,7 @@
         <v>64</v>
       </c>
       <c r="C258" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -5573,7 +5726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5581,7 +5734,7 @@
         <v>64</v>
       </c>
       <c r="C259" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D259" t="b">
         <v>1</v>
@@ -5590,7 +5743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5598,7 +5751,7 @@
         <v>65</v>
       </c>
       <c r="C260" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
@@ -5607,7 +5760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5615,7 +5768,7 @@
         <v>65</v>
       </c>
       <c r="C261" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D261" t="b">
         <v>1</v>
@@ -5624,7 +5777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5632,7 +5785,7 @@
         <v>65</v>
       </c>
       <c r="C262" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D262" t="b">
         <v>0</v>
@@ -5641,7 +5794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5649,7 +5802,7 @@
         <v>66</v>
       </c>
       <c r="C263" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
@@ -5658,7 +5811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5666,7 +5819,7 @@
         <v>66</v>
       </c>
       <c r="C264" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
@@ -5675,7 +5828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5683,7 +5836,7 @@
         <v>66</v>
       </c>
       <c r="C265" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D265" t="b">
         <v>1</v>
@@ -5692,7 +5845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5700,7 +5853,7 @@
         <v>67</v>
       </c>
       <c r="C266" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -5709,7 +5862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5717,7 +5870,7 @@
         <v>67</v>
       </c>
       <c r="C267" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
@@ -5726,7 +5879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5734,7 +5887,7 @@
         <v>67</v>
       </c>
       <c r="C268" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D268" t="b">
         <v>0</v>
@@ -5743,7 +5896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5751,7 +5904,7 @@
         <v>68</v>
       </c>
       <c r="C269" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D269" t="b">
         <v>1</v>
@@ -5760,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5768,7 +5921,7 @@
         <v>68</v>
       </c>
       <c r="C270" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D270" t="b">
         <v>0</v>
@@ -5777,7 +5930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5785,7 +5938,7 @@
         <v>68</v>
       </c>
       <c r="C271" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D271" t="b">
         <v>1</v>
@@ -5794,7 +5947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5802,7 +5955,7 @@
         <v>69</v>
       </c>
       <c r="C272" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D272" t="b">
         <v>1</v>
@@ -5811,7 +5964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5819,7 +5972,7 @@
         <v>69</v>
       </c>
       <c r="C273" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D273" t="b">
         <v>1</v>
@@ -5828,7 +5981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5836,13 +5989,574 @@
         <v>69</v>
       </c>
       <c r="C274" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
       </c>
       <c r="E274">
         <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>70</v>
+      </c>
+      <c r="C275" t="s">
+        <v>354</v>
+      </c>
+      <c r="D275" t="b">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>70</v>
+      </c>
+      <c r="C276" t="s">
+        <v>355</v>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>70</v>
+      </c>
+      <c r="C277" t="s">
+        <v>356</v>
+      </c>
+      <c r="D277" t="b">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>71</v>
+      </c>
+      <c r="C278" t="s">
+        <v>357</v>
+      </c>
+      <c r="D278" t="b">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>71</v>
+      </c>
+      <c r="C279" t="s">
+        <v>358</v>
+      </c>
+      <c r="D279" t="b">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>71</v>
+      </c>
+      <c r="C280" t="s">
+        <v>359</v>
+      </c>
+      <c r="D280" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>72</v>
+      </c>
+      <c r="C281" t="s">
+        <v>360</v>
+      </c>
+      <c r="D281" t="b">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>72</v>
+      </c>
+      <c r="C282" t="s">
+        <v>361</v>
+      </c>
+      <c r="D282" t="b">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>72</v>
+      </c>
+      <c r="C283" t="s">
+        <v>362</v>
+      </c>
+      <c r="D283" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>73</v>
+      </c>
+      <c r="C284" t="s">
+        <v>363</v>
+      </c>
+      <c r="D284" t="b">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>73</v>
+      </c>
+      <c r="C285" t="s">
+        <v>364</v>
+      </c>
+      <c r="D285" t="b">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>73</v>
+      </c>
+      <c r="C286" t="s">
+        <v>365</v>
+      </c>
+      <c r="D286" t="b">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>74</v>
+      </c>
+      <c r="C287" t="s">
+        <v>366</v>
+      </c>
+      <c r="D287" t="b">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>74</v>
+      </c>
+      <c r="C288" t="s">
+        <v>367</v>
+      </c>
+      <c r="D288" t="b">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>74</v>
+      </c>
+      <c r="C289" t="s">
+        <v>368</v>
+      </c>
+      <c r="D289" t="b">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>75</v>
+      </c>
+      <c r="C290" t="s">
+        <v>369</v>
+      </c>
+      <c r="D290" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>75</v>
+      </c>
+      <c r="C291" t="s">
+        <v>370</v>
+      </c>
+      <c r="D291" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>75</v>
+      </c>
+      <c r="C292" t="s">
+        <v>371</v>
+      </c>
+      <c r="D292" t="b">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>76</v>
+      </c>
+      <c r="C293" t="s">
+        <v>372</v>
+      </c>
+      <c r="D293" t="b">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>76</v>
+      </c>
+      <c r="C294" t="s">
+        <v>373</v>
+      </c>
+      <c r="D294" t="b">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>76</v>
+      </c>
+      <c r="C295" t="s">
+        <v>374</v>
+      </c>
+      <c r="D295" t="b">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>77</v>
+      </c>
+      <c r="C296" t="s">
+        <v>375</v>
+      </c>
+      <c r="D296" t="b">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>77</v>
+      </c>
+      <c r="C297" t="s">
+        <v>376</v>
+      </c>
+      <c r="D297" t="b">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>77</v>
+      </c>
+      <c r="C298" t="s">
+        <v>377</v>
+      </c>
+      <c r="D298" t="b">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>78</v>
+      </c>
+      <c r="C299" t="s">
+        <v>378</v>
+      </c>
+      <c r="D299" t="b">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>78</v>
+      </c>
+      <c r="C300" t="s">
+        <v>379</v>
+      </c>
+      <c r="D300" t="b">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>78</v>
+      </c>
+      <c r="C301" t="s">
+        <v>380</v>
+      </c>
+      <c r="D301" t="b">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>79</v>
+      </c>
+      <c r="C302" t="s">
+        <v>381</v>
+      </c>
+      <c r="D302" t="b">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>79</v>
+      </c>
+      <c r="C303" t="s">
+        <v>382</v>
+      </c>
+      <c r="D303" t="b">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>79</v>
+      </c>
+      <c r="C304" t="s">
+        <v>383</v>
+      </c>
+      <c r="D304" t="b">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>80</v>
+      </c>
+      <c r="C305" t="s">
+        <v>384</v>
+      </c>
+      <c r="D305" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>80</v>
+      </c>
+      <c r="C306" t="s">
+        <v>385</v>
+      </c>
+      <c r="D306" t="b">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>80</v>
+      </c>
+      <c r="C307" t="s">
+        <v>386</v>
+      </c>
+      <c r="D307" t="b">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
